--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTCMS\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F69B79-B92F-42D0-893D-B0FAABB5C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C81DCF-E1BC-4801-9031-AA096E1DF5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A53982B-5CA4-4074-96C3-CD0066641F80}"/>
+    <workbookView xWindow="11940" yWindow="828" windowWidth="10368" windowHeight="11340" xr2:uid="{9A53982B-5CA4-4074-96C3-CD0066641F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +85,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,16 +400,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,21 +486,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
